--- a/DataFeeds/Natural_Gas_Steo.xlsx
+++ b/DataFeeds/Natural_Gas_Steo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E5FCD6B-4F90-45F8-81C3-7AD7E8D72283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C3284D-9449-4753-8B9A-FCBA77FB62CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{1062046B-8D60-4B68-AA29-9294A4E6E948}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1062046B-8D60-4B68-AA29-9294A4E6E948}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="15">
   <si>
     <t>NGHHUUS</t>
   </si>
@@ -491,15 +491,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF626FF3-16C6-4839-BA65-933AD0BDB4A0}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:C193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -510,795 +510,2115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
-        <v>3.69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
-        <v>2.6930000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
-        <v>2.7959999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>11.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
-        <v>2.9670000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
-        <v>2.8330000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
-        <v>2.9609999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2">
-        <v>2.9950000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2">
-        <v>3.2759999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2">
-        <v>4.0910000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2">
-        <v>4.0410000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>2019</v>
+      <c r="C13">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2009</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="2">
-        <v>3.109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>2019</v>
+      <c r="C14">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2009</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="2">
-        <v>2.6909999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>2019</v>
+      <c r="C15">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2009</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="2">
-        <v>2.948</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>2019</v>
+      <c r="C16">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2009</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="2">
-        <v>2.6469999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>2019</v>
+      <c r="C17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2009</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="2">
-        <v>2.6379999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>2019</v>
+      <c r="C18">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2009</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="2">
-        <v>2.399</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>2019</v>
+      <c r="C19">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2009</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="2">
-        <v>2.3660000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>2019</v>
+      <c r="C20">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2009</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="2">
-        <v>2.2210000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>2019</v>
+      <c r="C21">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2009</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="2">
-        <v>2.5590000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>2019</v>
+      <c r="C22">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2009</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="2">
-        <v>2.331</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>2019</v>
+      <c r="C23">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2009</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="2">
-        <v>2.653</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>2019</v>
+      <c r="C24">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2009</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="2">
-        <v>2.2189999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>2020</v>
+      <c r="C25">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2010</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="2">
-        <v>2.02</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>2020</v>
+      <c r="C26">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2010</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="2">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>2020</v>
+      <c r="C27">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>2010</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="2">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>2020</v>
+      <c r="C28">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>2010</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="2">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>2020</v>
+      <c r="C29">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>2010</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="2">
-        <v>1.748</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>2020</v>
+      <c r="C30">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2010</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2">
-        <v>1.631</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>2020</v>
+      <c r="C31">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2010</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="2">
-        <v>1.7669999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>2020</v>
+      <c r="C32">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>2010</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>2020</v>
+      <c r="C33">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>2010</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="2">
-        <v>1.9219999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>2020</v>
+      <c r="C34">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>2010</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="2">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>2020</v>
+      <c r="C35">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>2010</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="2">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>2020</v>
+      <c r="C36">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2010</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="2">
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>2021</v>
+      <c r="C37">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2011</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="2">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>2021</v>
+      <c r="C38">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>2011</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="2">
-        <v>5.35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>2021</v>
+      <c r="C39">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>2011</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="2">
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>2021</v>
+      <c r="C40">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>2011</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="2">
-        <v>2.6629999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>2021</v>
+      <c r="C41">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>2011</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="2">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>2021</v>
+      <c r="C42">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>2011</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="2">
-        <v>3.26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>2021</v>
+      <c r="C43">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2011</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="2">
-        <v>3.84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>2021</v>
+      <c r="C44">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2011</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="2">
-        <v>4.07</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>2021</v>
+      <c r="C45">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2011</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="2">
-        <v>5.16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>2021</v>
+      <c r="C46">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>2011</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="2">
-        <v>5.51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>2021</v>
+      <c r="C47">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>2011</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="2">
-        <v>5.05</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>2021</v>
+      <c r="C48">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2011</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="2">
-        <v>3.76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>2022</v>
+      <c r="C49">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>2012</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="2">
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>2022</v>
+      <c r="C50">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>2012</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="2">
-        <v>4.6900000000000004</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>2022</v>
+      <c r="C51">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>2012</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>2022</v>
+      <c r="C52">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>2012</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="2">
-        <v>6.59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>2022</v>
+      <c r="C53">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>2012</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="2">
-        <v>8.14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>2022</v>
+      <c r="C54">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>2012</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="2">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <v>2022</v>
+      <c r="C55">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>2012</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="2">
-        <v>7.2839999999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>2022</v>
+      <c r="C56">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>2012</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="3">
-        <v>7.58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>2022</v>
+      <c r="C57">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>2012</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="3">
-        <v>7.59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>2022</v>
+      <c r="C58">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>2012</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="3">
-        <v>7.53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <v>2022</v>
+      <c r="C59">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>2012</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="3">
-        <v>7.56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <v>2022</v>
+      <c r="C60">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>2012</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="3">
-        <v>7.68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>2023</v>
+      <c r="C61">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>2013</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="3">
-        <v>7.71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
-        <v>2023</v>
+      <c r="C62">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>2013</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="3">
-        <v>7.48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <v>2023</v>
+      <c r="C63">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>2013</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="3">
-        <v>6.58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
-        <v>2023</v>
+      <c r="C64">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>2013</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="3">
-        <v>4.29</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>2023</v>
+      <c r="C65">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>2013</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="3">
-        <v>4.28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
-        <v>2023</v>
+      <c r="C66">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>2013</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="3">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
-        <v>2023</v>
+      <c r="C67">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>2013</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C68" s="3">
-        <v>4.42</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
-        <v>2023</v>
+      <c r="C68">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>2013</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="3">
-        <v>4.42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
-        <v>2023</v>
+      <c r="C69">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>2013</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="3">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
-        <v>2023</v>
+      <c r="C70">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>2013</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="3">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
-        <v>2023</v>
+      <c r="C71">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>2013</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="3">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
-        <v>2023</v>
+      <c r="C72">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>2013</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>2014</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>2014</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>2014</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>2014</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>2014</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>2014</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>2014</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>2014</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>2014</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>2014</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>2014</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>2014</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>2015</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>2015</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>2015</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>2015</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>2015</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>2015</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>2015</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>2015</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>2015</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>2015</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>2015</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>2015</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>2016</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>2016</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>2016</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>2016</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>2016</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>2016</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>2016</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>2016</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>2016</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>2016</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>2016</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>2016</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>2017</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>2017</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>2017</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>2017</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>2017</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>2017</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>2017</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>2017</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>2017</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>2017</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>2017</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>2017</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>2018</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>2018</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="2">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>2018</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="2">
+        <v>2.6930000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>2018</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" s="2">
+        <v>2.7959999999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>2018</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>2018</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="2">
+        <v>2.9670000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>2018</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="2">
+        <v>2.8330000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>2018</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="2">
+        <v>2.9609999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>2018</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="2">
+        <v>2.9950000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>2018</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="2">
+        <v>3.2759999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>2018</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="2">
+        <v>4.0910000000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>2018</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="2">
+        <v>4.0410000000000004</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="2">
+        <v>3.109</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="2">
+        <v>2.6909999999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="2">
+        <v>2.948</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="2">
+        <v>2.6469999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" s="2">
+        <v>2.6379999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="2">
+        <v>2.399</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" s="2">
+        <v>2.3660000000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="2">
+        <v>2.2210000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="2">
+        <v>2.5590000000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="2">
+        <v>2.331</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="2">
+        <v>2.653</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="2">
+        <v>2.2189999999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="2">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="2">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" s="2">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="2">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="2">
+        <v>1.748</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" s="2">
+        <v>1.631</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" s="2">
+        <v>1.7669999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" s="2">
+        <v>1.9219999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" s="2">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="2">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" s="2">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="2">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" s="2">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" s="2">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" s="2">
+        <v>2.6629999999999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" s="2">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" s="2">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="2">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="2">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" s="2">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" s="2">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" s="2">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" s="2">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="2">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171" s="2">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" s="2">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" s="2">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" s="2">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="2">
+        <v>7.2839999999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="3">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" s="3">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" s="3">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" s="3">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="3">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" s="3">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183" s="3">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" s="3">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" s="3">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" s="3">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" s="3">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" s="3">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" s="3">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" s="3">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" s="3">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" s="3">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" s="3">
         <v>4.53</v>
       </c>
     </row>

--- a/DataFeeds/Natural_Gas_Steo.xlsx
+++ b/DataFeeds/Natural_Gas_Steo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C3284D-9449-4753-8B9A-FCBA77FB62CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE98C0FA-644A-4042-8289-BB8F2A56DC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1062046B-8D60-4B68-AA29-9294A4E6E948}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +105,6 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -160,15 +153,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -493,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF626FF3-16C6-4839-BA65-933AD0BDB4A0}">
   <dimension ref="A1:C193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C193"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="E184" sqref="E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,7 +504,7 @@
       <c r="A2">
         <v>2008</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2">
@@ -525,7 +515,7 @@
       <c r="A3">
         <v>2008</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3">
@@ -536,7 +526,7 @@
       <c r="A4">
         <v>2008</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C4">
@@ -547,7 +537,7 @@
       <c r="A5">
         <v>2008</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5">
@@ -558,7 +548,7 @@
       <c r="A6">
         <v>2008</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6">
@@ -569,7 +559,7 @@
       <c r="A7">
         <v>2008</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C7">
@@ -580,7 +570,7 @@
       <c r="A8">
         <v>2008</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8">
@@ -591,7 +581,7 @@
       <c r="A9">
         <v>2008</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C9">
@@ -602,7 +592,7 @@
       <c r="A10">
         <v>2008</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C10">
@@ -613,7 +603,7 @@
       <c r="A11">
         <v>2008</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C11">
@@ -624,7 +614,7 @@
       <c r="A12">
         <v>2008</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C12">
@@ -635,7 +625,7 @@
       <c r="A13">
         <v>2008</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C13">
@@ -646,7 +636,7 @@
       <c r="A14">
         <v>2009</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C14">
@@ -657,7 +647,7 @@
       <c r="A15">
         <v>2009</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C15">
@@ -668,7 +658,7 @@
       <c r="A16">
         <v>2009</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C16">
@@ -679,7 +669,7 @@
       <c r="A17">
         <v>2009</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C17">
@@ -690,7 +680,7 @@
       <c r="A18">
         <v>2009</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C18">
@@ -701,7 +691,7 @@
       <c r="A19">
         <v>2009</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C19">
@@ -712,7 +702,7 @@
       <c r="A20">
         <v>2009</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C20">
@@ -723,7 +713,7 @@
       <c r="A21">
         <v>2009</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C21">
@@ -734,7 +724,7 @@
       <c r="A22">
         <v>2009</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C22">
@@ -745,7 +735,7 @@
       <c r="A23">
         <v>2009</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C23">
@@ -756,7 +746,7 @@
       <c r="A24">
         <v>2009</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C24">
@@ -767,7 +757,7 @@
       <c r="A25">
         <v>2009</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C25">
@@ -778,7 +768,7 @@
       <c r="A26">
         <v>2010</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C26">
@@ -789,7 +779,7 @@
       <c r="A27">
         <v>2010</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C27">
@@ -800,7 +790,7 @@
       <c r="A28">
         <v>2010</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C28">
@@ -811,7 +801,7 @@
       <c r="A29">
         <v>2010</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C29">
@@ -822,7 +812,7 @@
       <c r="A30">
         <v>2010</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C30">
@@ -833,7 +823,7 @@
       <c r="A31">
         <v>2010</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C31">
@@ -844,7 +834,7 @@
       <c r="A32">
         <v>2010</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C32">
@@ -855,7 +845,7 @@
       <c r="A33">
         <v>2010</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C33">
@@ -866,7 +856,7 @@
       <c r="A34">
         <v>2010</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C34">
@@ -877,7 +867,7 @@
       <c r="A35">
         <v>2010</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C35">
@@ -888,7 +878,7 @@
       <c r="A36">
         <v>2010</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C36">
@@ -899,7 +889,7 @@
       <c r="A37">
         <v>2010</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C37">
@@ -910,7 +900,7 @@
       <c r="A38">
         <v>2011</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C38">
@@ -921,7 +911,7 @@
       <c r="A39">
         <v>2011</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C39">
@@ -932,7 +922,7 @@
       <c r="A40">
         <v>2011</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C40">
@@ -943,7 +933,7 @@
       <c r="A41">
         <v>2011</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C41">
@@ -954,7 +944,7 @@
       <c r="A42">
         <v>2011</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C42">
@@ -965,7 +955,7 @@
       <c r="A43">
         <v>2011</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C43">
@@ -976,7 +966,7 @@
       <c r="A44">
         <v>2011</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C44">
@@ -987,7 +977,7 @@
       <c r="A45">
         <v>2011</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C45">
@@ -998,7 +988,7 @@
       <c r="A46">
         <v>2011</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C46">
@@ -1009,7 +999,7 @@
       <c r="A47">
         <v>2011</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C47">
@@ -1020,7 +1010,7 @@
       <c r="A48">
         <v>2011</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C48">
@@ -1031,7 +1021,7 @@
       <c r="A49">
         <v>2011</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C49">
@@ -1042,7 +1032,7 @@
       <c r="A50">
         <v>2012</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C50">
@@ -1053,7 +1043,7 @@
       <c r="A51">
         <v>2012</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C51">
@@ -1064,7 +1054,7 @@
       <c r="A52">
         <v>2012</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C52">
@@ -1075,7 +1065,7 @@
       <c r="A53">
         <v>2012</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C53">
@@ -1086,7 +1076,7 @@
       <c r="A54">
         <v>2012</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C54">
@@ -1097,7 +1087,7 @@
       <c r="A55">
         <v>2012</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C55">
@@ -1108,7 +1098,7 @@
       <c r="A56">
         <v>2012</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C56">
@@ -1119,7 +1109,7 @@
       <c r="A57">
         <v>2012</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C57">
@@ -1130,7 +1120,7 @@
       <c r="A58">
         <v>2012</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C58">
@@ -1141,7 +1131,7 @@
       <c r="A59">
         <v>2012</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C59">
@@ -1152,7 +1142,7 @@
       <c r="A60">
         <v>2012</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C60">
@@ -1163,7 +1153,7 @@
       <c r="A61">
         <v>2012</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C61">
@@ -1174,7 +1164,7 @@
       <c r="A62">
         <v>2013</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C62">
@@ -1185,7 +1175,7 @@
       <c r="A63">
         <v>2013</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C63">
@@ -1196,7 +1186,7 @@
       <c r="A64">
         <v>2013</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C64">
@@ -1207,7 +1197,7 @@
       <c r="A65">
         <v>2013</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C65">
@@ -1218,7 +1208,7 @@
       <c r="A66">
         <v>2013</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C66">
@@ -1229,7 +1219,7 @@
       <c r="A67">
         <v>2013</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C67">
@@ -1240,7 +1230,7 @@
       <c r="A68">
         <v>2013</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C68">
@@ -1251,7 +1241,7 @@
       <c r="A69">
         <v>2013</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C69">
@@ -1262,7 +1252,7 @@
       <c r="A70">
         <v>2013</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C70">
@@ -1273,7 +1263,7 @@
       <c r="A71">
         <v>2013</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C71">
@@ -1284,7 +1274,7 @@
       <c r="A72">
         <v>2013</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C72">
@@ -1295,7 +1285,7 @@
       <c r="A73">
         <v>2013</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C73">
@@ -1306,7 +1296,7 @@
       <c r="A74">
         <v>2014</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C74">
@@ -1317,7 +1307,7 @@
       <c r="A75">
         <v>2014</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C75">
@@ -1328,7 +1318,7 @@
       <c r="A76">
         <v>2014</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C76">
@@ -1339,7 +1329,7 @@
       <c r="A77">
         <v>2014</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C77">
@@ -1350,7 +1340,7 @@
       <c r="A78">
         <v>2014</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C78">
@@ -1361,7 +1351,7 @@
       <c r="A79">
         <v>2014</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C79">
@@ -1372,7 +1362,7 @@
       <c r="A80">
         <v>2014</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C80">
@@ -1383,7 +1373,7 @@
       <c r="A81">
         <v>2014</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C81">
@@ -1394,7 +1384,7 @@
       <c r="A82">
         <v>2014</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C82">
@@ -1405,7 +1395,7 @@
       <c r="A83">
         <v>2014</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C83">
@@ -1416,7 +1406,7 @@
       <c r="A84">
         <v>2014</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C84">
@@ -1427,7 +1417,7 @@
       <c r="A85">
         <v>2014</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C85">
@@ -1438,7 +1428,7 @@
       <c r="A86">
         <v>2015</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C86">
@@ -1449,7 +1439,7 @@
       <c r="A87">
         <v>2015</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C87">
@@ -1460,7 +1450,7 @@
       <c r="A88">
         <v>2015</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C88">
@@ -1471,7 +1461,7 @@
       <c r="A89">
         <v>2015</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C89">
@@ -1482,7 +1472,7 @@
       <c r="A90">
         <v>2015</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C90">
@@ -1493,7 +1483,7 @@
       <c r="A91">
         <v>2015</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C91">
@@ -1504,7 +1494,7 @@
       <c r="A92">
         <v>2015</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C92">
@@ -1515,7 +1505,7 @@
       <c r="A93">
         <v>2015</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C93">
@@ -1526,7 +1516,7 @@
       <c r="A94">
         <v>2015</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C94">
@@ -1537,7 +1527,7 @@
       <c r="A95">
         <v>2015</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C95">
@@ -1548,7 +1538,7 @@
       <c r="A96">
         <v>2015</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C96">
@@ -1559,7 +1549,7 @@
       <c r="A97">
         <v>2015</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C97">
@@ -1570,7 +1560,7 @@
       <c r="A98">
         <v>2016</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C98">
@@ -1581,7 +1571,7 @@
       <c r="A99">
         <v>2016</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C99">
@@ -1592,7 +1582,7 @@
       <c r="A100">
         <v>2016</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C100">
@@ -1603,7 +1593,7 @@
       <c r="A101">
         <v>2016</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C101">
@@ -1614,7 +1604,7 @@
       <c r="A102">
         <v>2016</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C102">
@@ -1625,7 +1615,7 @@
       <c r="A103">
         <v>2016</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C103">
@@ -1636,7 +1626,7 @@
       <c r="A104">
         <v>2016</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C104">
@@ -1647,7 +1637,7 @@
       <c r="A105">
         <v>2016</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C105">
@@ -1658,7 +1648,7 @@
       <c r="A106">
         <v>2016</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C106">
@@ -1669,7 +1659,7 @@
       <c r="A107">
         <v>2016</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C107">
@@ -1680,7 +1670,7 @@
       <c r="A108">
         <v>2016</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C108">
@@ -1691,7 +1681,7 @@
       <c r="A109">
         <v>2016</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C109">
@@ -1702,7 +1692,7 @@
       <c r="A110">
         <v>2017</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C110">
@@ -1713,7 +1703,7 @@
       <c r="A111">
         <v>2017</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C111">
@@ -1724,7 +1714,7 @@
       <c r="A112">
         <v>2017</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C112">
@@ -1735,7 +1725,7 @@
       <c r="A113">
         <v>2017</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C113">
@@ -1746,7 +1736,7 @@
       <c r="A114">
         <v>2017</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C114">
@@ -1757,7 +1747,7 @@
       <c r="A115">
         <v>2017</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C115">
@@ -1768,7 +1758,7 @@
       <c r="A116">
         <v>2017</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C116">
@@ -1779,7 +1769,7 @@
       <c r="A117">
         <v>2017</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C117">
@@ -1790,7 +1780,7 @@
       <c r="A118">
         <v>2017</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C118">
@@ -1801,7 +1791,7 @@
       <c r="A119">
         <v>2017</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C119">
@@ -1812,7 +1802,7 @@
       <c r="A120">
         <v>2017</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C120">
@@ -1823,7 +1813,7 @@
       <c r="A121">
         <v>2017</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C121">
@@ -1834,7 +1824,7 @@
       <c r="A122">
         <v>2018</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C122" s="2">
@@ -1845,7 +1835,7 @@
       <c r="A123">
         <v>2018</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C123" s="2">
@@ -1856,7 +1846,7 @@
       <c r="A124">
         <v>2018</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C124" s="2">
@@ -1867,7 +1857,7 @@
       <c r="A125">
         <v>2018</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C125" s="2">
@@ -1878,7 +1868,7 @@
       <c r="A126">
         <v>2018</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C126" s="2">
@@ -1889,7 +1879,7 @@
       <c r="A127">
         <v>2018</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C127" s="2">
@@ -1900,7 +1890,7 @@
       <c r="A128">
         <v>2018</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C128" s="2">
@@ -1911,7 +1901,7 @@
       <c r="A129">
         <v>2018</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C129" s="2">
@@ -1922,7 +1912,7 @@
       <c r="A130">
         <v>2018</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C130" s="2">
@@ -1933,7 +1923,7 @@
       <c r="A131">
         <v>2018</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C131" s="2">
@@ -1944,7 +1934,7 @@
       <c r="A132">
         <v>2018</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C132" s="2">
@@ -1955,7 +1945,7 @@
       <c r="A133">
         <v>2018</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C133" s="2">
@@ -1963,10 +1953,10 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" s="4">
+      <c r="A134" s="3">
         <v>2019</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C134" s="2">
@@ -1974,10 +1964,10 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" s="4">
+      <c r="A135" s="3">
         <v>2019</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C135" s="2">
@@ -1985,10 +1975,10 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" s="4">
+      <c r="A136" s="3">
         <v>2019</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C136" s="2">
@@ -1996,10 +1986,10 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" s="4">
+      <c r="A137" s="3">
         <v>2019</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C137" s="2">
@@ -2007,10 +1997,10 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" s="4">
+      <c r="A138" s="3">
         <v>2019</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C138" s="2">
@@ -2018,10 +2008,10 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" s="4">
+      <c r="A139" s="3">
         <v>2019</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C139" s="2">
@@ -2029,10 +2019,10 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" s="4">
+      <c r="A140" s="3">
         <v>2019</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C140" s="2">
@@ -2040,10 +2030,10 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" s="4">
+      <c r="A141" s="3">
         <v>2019</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C141" s="2">
@@ -2051,10 +2041,10 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" s="4">
+      <c r="A142" s="3">
         <v>2019</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C142" s="2">
@@ -2062,10 +2052,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" s="4">
+      <c r="A143" s="3">
         <v>2019</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C143" s="2">
@@ -2073,10 +2063,10 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" s="4">
+      <c r="A144" s="3">
         <v>2019</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C144" s="2">
@@ -2084,10 +2074,10 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" s="4">
+      <c r="A145" s="3">
         <v>2019</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C145" s="2">
@@ -2095,10 +2085,10 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" s="4">
+      <c r="A146" s="3">
         <v>2020</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C146" s="2">
@@ -2106,10 +2096,10 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" s="4">
+      <c r="A147" s="3">
         <v>2020</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C147" s="2">
@@ -2117,10 +2107,10 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" s="4">
+      <c r="A148" s="3">
         <v>2020</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C148" s="2">
@@ -2128,10 +2118,10 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" s="4">
+      <c r="A149" s="3">
         <v>2020</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C149" s="2">
@@ -2139,10 +2129,10 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" s="4">
+      <c r="A150" s="3">
         <v>2020</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C150" s="2">
@@ -2150,10 +2140,10 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" s="4">
+      <c r="A151" s="3">
         <v>2020</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C151" s="2">
@@ -2161,10 +2151,10 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" s="4">
+      <c r="A152" s="3">
         <v>2020</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C152" s="2">
@@ -2172,10 +2162,10 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" s="4">
+      <c r="A153" s="3">
         <v>2020</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C153" s="2">
@@ -2183,10 +2173,10 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A154" s="4">
+      <c r="A154" s="3">
         <v>2020</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C154" s="2">
@@ -2194,10 +2184,10 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A155" s="4">
+      <c r="A155" s="3">
         <v>2020</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C155" s="2">
@@ -2205,10 +2195,10 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A156" s="4">
+      <c r="A156" s="3">
         <v>2020</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C156" s="2">
@@ -2216,10 +2206,10 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A157" s="4">
+      <c r="A157" s="3">
         <v>2020</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C157" s="2">
@@ -2227,10 +2217,10 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A158" s="4">
+      <c r="A158" s="3">
         <v>2021</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C158" s="2">
@@ -2238,10 +2228,10 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" s="4">
+      <c r="A159" s="3">
         <v>2021</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C159" s="2">
@@ -2249,10 +2239,10 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" s="4">
+      <c r="A160" s="3">
         <v>2021</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C160" s="2">
@@ -2260,10 +2250,10 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" s="4">
+      <c r="A161" s="3">
         <v>2021</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C161" s="2">
@@ -2271,10 +2261,10 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" s="4">
+      <c r="A162" s="3">
         <v>2021</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C162" s="2">
@@ -2282,10 +2272,10 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" s="4">
+      <c r="A163" s="3">
         <v>2021</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C163" s="2">
@@ -2293,10 +2283,10 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" s="4">
+      <c r="A164" s="3">
         <v>2021</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C164" s="2">
@@ -2304,10 +2294,10 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A165" s="4">
+      <c r="A165" s="3">
         <v>2021</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C165" s="2">
@@ -2315,10 +2305,10 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" s="4">
+      <c r="A166" s="3">
         <v>2021</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C166" s="2">
@@ -2326,10 +2316,10 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" s="4">
+      <c r="A167" s="3">
         <v>2021</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C167" s="2">
@@ -2337,10 +2327,10 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" s="4">
+      <c r="A168" s="3">
         <v>2021</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C168" s="2">
@@ -2348,10 +2338,10 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A169" s="4">
+      <c r="A169" s="3">
         <v>2021</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C169" s="2">
@@ -2359,10 +2349,10 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" s="4">
+      <c r="A170" s="3">
         <v>2022</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C170" s="2">
@@ -2370,10 +2360,10 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" s="4">
+      <c r="A171" s="3">
         <v>2022</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C171" s="2">
@@ -2381,10 +2371,10 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A172" s="4">
+      <c r="A172" s="3">
         <v>2022</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C172" s="2">
@@ -2392,10 +2382,10 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" s="4">
+      <c r="A173" s="3">
         <v>2022</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C173" s="2">
@@ -2403,10 +2393,10 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" s="4">
+      <c r="A174" s="3">
         <v>2022</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C174" s="2">
@@ -2414,10 +2404,10 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" s="4">
+      <c r="A175" s="3">
         <v>2022</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C175" s="2">
@@ -2425,10 +2415,10 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" s="4">
+      <c r="A176" s="3">
         <v>2022</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C176" s="2">
@@ -2436,190 +2426,190 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" s="4">
+      <c r="A177" s="3">
         <v>2022</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C177" s="3">
-        <v>7.58</v>
+      <c r="C177">
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" s="4">
+      <c r="A178" s="3">
         <v>2022</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C178" s="3">
-        <v>7.59</v>
+      <c r="C178" s="2">
+        <v>8.8570799999999998</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" s="4">
+      <c r="A179" s="3">
         <v>2022</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C179" s="3">
-        <v>7.53</v>
+      <c r="C179" s="2">
+        <v>8.9706139999999994</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A180" s="4">
+      <c r="A180" s="3">
         <v>2022</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C180" s="3">
-        <v>7.56</v>
+      <c r="C180" s="2">
+        <v>9.0125489999999999</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" s="4">
+      <c r="A181" s="3">
         <v>2022</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C181" s="3">
-        <v>7.68</v>
+      <c r="C181" s="2">
+        <v>9.0938009999999991</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" s="4">
+      <c r="A182" s="3">
         <v>2023</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C182" s="3">
-        <v>7.71</v>
+      <c r="C182" s="2">
+        <v>9.1019939999999995</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183" s="4">
+      <c r="A183" s="3">
         <v>2023</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C183" s="3">
-        <v>7.48</v>
+      <c r="C183" s="2">
+        <v>8.2639960000000006</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" s="4">
+      <c r="A184" s="3">
         <v>2023</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C184" s="3">
-        <v>6.58</v>
+      <c r="C184" s="2">
+        <v>7.0404159999999996</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A185" s="4">
+      <c r="A185" s="3">
         <v>2023</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C185" s="3">
-        <v>4.29</v>
+      <c r="C185" s="2">
+        <v>5.2307110000000003</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A186" s="4">
+      <c r="A186" s="3">
         <v>2023</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C186" s="3">
-        <v>4.28</v>
+      <c r="C186" s="2">
+        <v>5.1922560000000004</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187" s="4">
+      <c r="A187" s="3">
         <v>2023</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C187" s="3">
-        <v>4.2699999999999996</v>
+      <c r="C187" s="2">
+        <v>5.254505</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A188" s="4">
+      <c r="A188" s="3">
         <v>2023</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C188" s="3">
-        <v>4.42</v>
+      <c r="C188" s="2">
+        <v>5.2992080000000001</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A189" s="4">
+      <c r="A189" s="3">
         <v>2023</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C189" s="3">
-        <v>4.42</v>
+      <c r="C189" s="2">
+        <v>5.3116490000000001</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A190" s="4">
+      <c r="A190" s="3">
         <v>2023</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C190" s="3">
-        <v>4.3499999999999996</v>
+      <c r="C190" s="2">
+        <v>5.2273889999999996</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" s="4">
+      <c r="A191" s="3">
         <v>2023</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C191" s="3">
-        <v>4.3499999999999996</v>
+      <c r="C191" s="2">
+        <v>5.2520020000000001</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" s="4">
+      <c r="A192" s="3">
         <v>2023</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C192" s="3">
-        <v>4.46</v>
+      <c r="C192" s="2">
+        <v>5.3757580000000003</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" s="4">
+      <c r="A193" s="3">
         <v>2023</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C193" s="3">
-        <v>4.53</v>
+      <c r="C193" s="2">
+        <v>5.528791</v>
       </c>
     </row>
   </sheetData>
